--- a/testing/test_results.xlsx
+++ b/testing/test_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selarow\Documents\Code\blossom\report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Selarow\Documents\Code\blossom\testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6E8E98-EEEF-45B4-9E0C-728190C42D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C16F8F-CCD4-444D-83B3-14F36F73F04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="4815" windowWidth="28800" windowHeight="15345" xr2:uid="{B6DF9EE8-3EB9-4761-AB15-99FC6CE0FD4C}"/>
+    <workbookView xWindow="5535" yWindow="2640" windowWidth="27525" windowHeight="15780" xr2:uid="{B6DF9EE8-3EB9-4761-AB15-99FC6CE0FD4C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>acc (training)</t>
   </si>
@@ -42,9 +42,6 @@
     <t>acc (test)</t>
   </si>
   <si>
-    <t>optimal run?</t>
-  </si>
-  <si>
     <t>CPU time</t>
   </si>
   <si>
@@ -52,6 +49,66 @@
   </si>
   <si>
     <t>feature_num</t>
+  </si>
+  <si>
+    <t>anneal</t>
+  </si>
+  <si>
+    <t>car-un</t>
+  </si>
+  <si>
+    <t>diabetes</t>
+  </si>
+  <si>
+    <t>ionosphere</t>
+  </si>
+  <si>
+    <t>iris-bin</t>
+  </si>
+  <si>
+    <t>lymph</t>
+  </si>
+  <si>
+    <t>monk1-bin</t>
+  </si>
+  <si>
+    <t>mushroom</t>
+  </si>
+  <si>
+    <t>anneal_expanded</t>
+  </si>
+  <si>
+    <t>car-un_expanded</t>
+  </si>
+  <si>
+    <t>diabetes_expanded</t>
+  </si>
+  <si>
+    <t>ionosphere_expanded</t>
+  </si>
+  <si>
+    <t>iris-bin_expanded</t>
+  </si>
+  <si>
+    <t>lymph_expanded</t>
+  </si>
+  <si>
+    <t>monk1-bin_expanded</t>
+  </si>
+  <si>
+    <t>mushroom_expanded</t>
+  </si>
+  <si>
+    <t>max_depth=4</t>
+  </si>
+  <si>
+    <t>test_sample=.2</t>
+  </si>
+  <si>
+    <t>seed=1</t>
+  </si>
+  <si>
+    <t>time=900</t>
   </si>
 </sst>
 </file>
@@ -75,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -90,12 +147,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.34998626667073579"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -118,14 +181,302 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,40 +791,413 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642280AC-24F6-4487-9284-1A7D1CC2B1C8}">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="7" width="17.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="20.7109375" style="9" customWidth="1"/>
+    <col min="2" max="6" width="17.7109375" style="9" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24"/>
+      <c r="B1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="9">
+        <v>93</v>
+      </c>
+      <c r="C2" s="9">
+        <v>44</v>
+      </c>
+      <c r="D2" s="9">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="E2" s="9">
+        <v>0.88343559999999999</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1.1619999999999999</v>
+      </c>
+      <c r="G2" s="12"/>
+      <c r="H2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1">
+        <v>21483</v>
+      </c>
+      <c r="C3" s="1">
+        <v>18368</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.88343559999999999</v>
+      </c>
+      <c r="F3" s="3">
+        <v>900</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+    </row>
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="9">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D4" s="9">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.8901734</v>
+      </c>
+      <c r="F4" s="11">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1071</v>
+      </c>
+      <c r="C5" s="1">
+        <v>126</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.97819999999999996</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.96531789999999995</v>
+      </c>
+      <c r="F5" s="3">
+        <v>900</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="9">
+        <v>112</v>
+      </c>
+      <c r="C6" s="9">
+        <v>56</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.82569999999999999</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.76623379999999996</v>
+      </c>
+      <c r="F6" s="11">
+        <v>5.2709999999999999</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>31192</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24212</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.77272730000000001</v>
+      </c>
+      <c r="F7" s="3">
+        <v>900</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="9">
+        <v>445</v>
+      </c>
+      <c r="C8" s="9">
+        <v>223</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.90140849999999995</v>
+      </c>
+      <c r="F8" s="11">
+        <v>565.1</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>494395</v>
+      </c>
+      <c r="C9" s="1">
+        <v>380485</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.943662</v>
+      </c>
+      <c r="F9" s="3">
+        <v>900</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9">
+        <v>12</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.99160000000000004</v>
+      </c>
+      <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>342</v>
+      </c>
+      <c r="C11" s="1">
+        <v>235</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="9">
+        <v>68</v>
+      </c>
+      <c r="C12" s="9">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.99139999999999995</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0.8387097</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>11458</v>
+      </c>
+      <c r="C13" s="1">
+        <v>7947</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.8387097</v>
+      </c>
+      <c r="F13" s="3">
+        <v>900</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="9">
+        <v>11</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0.92307689999999998</v>
+      </c>
+      <c r="F14" s="11">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1">
+        <v>286</v>
+      </c>
+      <c r="C15" s="1">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.0780000000000001</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="9">
+        <v>119</v>
+      </c>
+      <c r="C16" s="9">
+        <v>19</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="11">
+        <v>42.92</v>
+      </c>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5">
+        <v>35224</v>
+      </c>
+      <c r="C17" s="5">
+        <v>23765</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>900</v>
+      </c>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="H4:I4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
